--- a/biology/Zoologie/Avian_Science/Avian_Science.xlsx
+++ b/biology/Zoologie/Avian_Science/Avian_Science.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Avian Science est la revue de l’European Ornithologists' Union. La revue publie des travaux sur tous les aspects de l’ornithologie, autant théoriques qu’appliqués, mais avec un accent sur la biologie des espèces européennes. Le premier numéro a été publié en décembre 2001, mais la revue a cessé de paraître après le numéro 3 du volume 3.
